--- a/ASV/Drawings/OP18REFCS03-ASV-BOQ-001B.xlsx
+++ b/ASV/Drawings/OP18REFCS03-ASV-BOQ-001B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PlantAudit\ASV\BOQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PlantAudit\ASV\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D6BB1B-8622-40E0-9B5C-B34573E0F91B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243A94B-A951-49C5-BB13-2C05C01D718F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAG-BOQ" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -722,7 +722,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -750,9 +749,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -766,9 +762,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,9 +773,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -792,9 +782,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -819,9 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -974,6 +958,12 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1296,9 +1286,9 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <pane ySplit="510" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="E1" sqref="E1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <pane ySplit="510" topLeftCell="A46" activePane="bottomLeft"/>
+      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1306,7 +1296,7 @@
     <col min="1" max="1" width="7.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.26953125" style="6" customWidth="1"/>
     <col min="3" max="3" width="38" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" style="5" customWidth="1"/>
     <col min="8" max="9" width="8.7265625" style="4"/>
@@ -1325,7 +1315,7 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1350,1387 +1340,1387 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+      <c r="C2" s="16"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23">
         <v>1</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <f t="shared" ref="J3:J15" si="0">H3*G3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="26">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
-        <v>4</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="26">
+        <v>4</v>
+      </c>
+      <c r="G4" s="27">
         <f>40*54</f>
         <v>2160</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>7</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <f t="shared" si="0"/>
         <v>15120</v>
       </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="26">
         <v>5</v>
       </c>
-      <c r="F5" s="29">
-        <v>4</v>
-      </c>
-      <c r="G5" s="30">
+      <c r="F5" s="26">
+        <v>4</v>
+      </c>
+      <c r="G5" s="27">
         <f>30*54</f>
         <v>1620</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
-      <c r="F6" s="29">
-        <v>4</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="F6" s="26">
+        <v>4</v>
+      </c>
+      <c r="G6" s="27">
         <f>35*54</f>
         <v>1890</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>3</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <f t="shared" si="0"/>
         <v>5670</v>
       </c>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>5</v>
       </c>
-      <c r="F7" s="29">
-        <v>4</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="F7" s="26">
+        <v>4</v>
+      </c>
+      <c r="G7" s="27">
         <f>50*54</f>
         <v>2700</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>1</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>5</v>
       </c>
-      <c r="F8" s="29">
-        <v>4</v>
-      </c>
-      <c r="G8" s="30">
+      <c r="F8" s="26">
+        <v>4</v>
+      </c>
+      <c r="G8" s="27">
         <f>2*54</f>
         <v>108</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>60</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <f t="shared" si="0"/>
         <v>6480</v>
       </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <v>5</v>
       </c>
-      <c r="F9" s="29">
-        <v>4</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="F9" s="26">
+        <v>4</v>
+      </c>
+      <c r="G9" s="27">
         <f>10*54</f>
         <v>540</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>15</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>5</v>
       </c>
-      <c r="F10" s="29">
-        <v>4</v>
-      </c>
-      <c r="G10" s="30">
+      <c r="F10" s="26">
+        <v>4</v>
+      </c>
+      <c r="G10" s="27">
         <v>10000</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>1</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="26">
         <v>5</v>
       </c>
-      <c r="F11" s="29">
-        <v>4</v>
-      </c>
-      <c r="G11" s="30">
+      <c r="F11" s="26">
+        <v>4</v>
+      </c>
+      <c r="G11" s="27">
         <v>10000</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>1</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>5</v>
       </c>
-      <c r="F12" s="29">
-        <v>4</v>
-      </c>
-      <c r="G12" s="30">
+      <c r="F12" s="26">
+        <v>4</v>
+      </c>
+      <c r="G12" s="27">
         <f>35*54</f>
         <v>1890</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>1</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="24">
         <f t="shared" si="0"/>
         <v>1890</v>
       </c>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>5</v>
       </c>
-      <c r="F13" s="29">
-        <v>4</v>
-      </c>
-      <c r="G13" s="30">
+      <c r="F13" s="26">
+        <v>4</v>
+      </c>
+      <c r="G13" s="27">
         <f>40*54</f>
         <v>2160</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="24">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="26">
         <v>5</v>
       </c>
-      <c r="F14" s="29">
-        <v>4</v>
-      </c>
-      <c r="G14" s="30">
+      <c r="F14" s="26">
+        <v>4</v>
+      </c>
+      <c r="G14" s="27">
         <v>2000</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="23">
         <v>1</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="24">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25">
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="26">
         <v>5</v>
       </c>
-      <c r="F15" s="29">
-        <v>4</v>
-      </c>
-      <c r="G15" s="30">
+      <c r="F15" s="26">
+        <v>4</v>
+      </c>
+      <c r="G15" s="27">
         <v>10000</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="24">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="37">
+      <c r="C16" s="29"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="92">
         <v>1</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="41">
+      <c r="D17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="36">
         <v>6</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="G17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38">
         <v>1</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="39">
         <v>10000000</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
+    <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="93">
         <v>2</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="50">
+      <c r="D18" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="44">
         <v>6</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-    </row>
-    <row r="19" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46">
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="93">
         <v>3</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="55">
+      <c r="D19" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="49">
         <v>6</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-    </row>
-    <row r="20" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46">
-        <v>4</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="93">
+        <v>4</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="50">
+      <c r="D20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="44">
         <v>6</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46">
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="93">
         <v>5</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="55">
+      <c r="D21" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="49">
         <v>6</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46">
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="93">
         <v>6</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="50">
+      <c r="D22" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="44">
         <v>6</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46">
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+    </row>
+    <row r="23" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="93">
         <v>7</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="55">
+      <c r="D23" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="49">
         <v>6</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-    </row>
-    <row r="24" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46">
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="93">
         <v>8</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="50">
+      <c r="D24" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="44">
         <v>6</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-    </row>
-    <row r="25" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="46">
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="93">
         <v>9</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="55">
+      <c r="D25" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="49">
         <v>6</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-    </row>
-    <row r="26" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46">
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="93">
         <v>10</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="50">
+      <c r="D26" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="44">
         <v>6</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-    </row>
-    <row r="27" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46">
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+    </row>
+    <row r="27" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="93">
         <v>11</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="55">
+      <c r="D27" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="49">
         <v>6</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-    </row>
-    <row r="28" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="93">
         <v>12</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="50">
+      <c r="D28" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="44">
         <v>6</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-    </row>
-    <row r="29" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46">
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="93">
         <v>13</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="56" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="55">
+      <c r="D29" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="49">
         <v>6</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-    </row>
-    <row r="30" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46">
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="93">
         <v>14</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="50">
+      <c r="D30" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="44">
         <v>6</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-    </row>
-    <row r="31" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46">
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="93">
         <v>15</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58" t="s">
+      <c r="B31" s="51"/>
+      <c r="C31" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="60">
+      <c r="D31" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="54">
         <v>6</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
-    </row>
-    <row r="32" spans="1:11" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="46">
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+    </row>
+    <row r="32" spans="1:11" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="93">
         <v>16</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="55">
+      <c r="D32" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="49">
         <v>1</v>
       </c>
-      <c r="G32" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="68">
+      <c r="G32" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="62">
         <v>1</v>
       </c>
-      <c r="I32" s="68" t="s">
+      <c r="I32" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="69">
+      <c r="J32" s="63">
         <v>2000000</v>
       </c>
-      <c r="K32" s="70" t="s">
+      <c r="K32" s="64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="46">
+    <row r="33" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="93">
         <v>17</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="50">
+      <c r="D33" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="44">
         <v>6</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="65">
         <v>80000</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="66">
         <v>8</v>
       </c>
-      <c r="I33" s="72" t="s">
+      <c r="I33" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="67">
         <f>H33*G33</f>
         <v>640000</v>
       </c>
-      <c r="K33" s="74"/>
-    </row>
-    <row r="34" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="46">
+      <c r="K33" s="68"/>
+    </row>
+    <row r="34" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="93">
         <v>18</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="75">
+      <c r="E34" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="69">
         <v>3</v>
       </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="78">
+      <c r="G34" s="70"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72">
         <v>200000</v>
       </c>
-      <c r="K34" s="79"/>
-    </row>
-    <row r="35" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46">
+      <c r="K34" s="73"/>
+    </row>
+    <row r="35" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="93">
         <v>19</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="41">
-        <v>4</v>
-      </c>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="82">
+      <c r="D35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="36">
+        <v>4</v>
+      </c>
+      <c r="G35" s="74"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76">
         <v>2500000</v>
       </c>
-      <c r="K35" s="83" t="s">
+      <c r="K35" s="77" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="46">
+    <row r="36" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="93">
         <v>20</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="75">
-        <v>4</v>
-      </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="84">
+      <c r="D36" s="53"/>
+      <c r="E36" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="69">
+        <v>4</v>
+      </c>
+      <c r="G36" s="70"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="78">
         <v>1000000</v>
       </c>
-      <c r="K36" s="79" t="s">
+      <c r="K36" s="73" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="46">
+    <row r="37" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="93">
         <v>21</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="41">
-        <v>4</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="43">
+      <c r="D37" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="36">
+        <v>4</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="38">
         <v>1</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="39">
         <v>3000000</v>
       </c>
-      <c r="K37" s="45" t="s">
+      <c r="K37" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="46">
+    <row r="38" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="93">
         <v>22</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="48" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="50">
-        <v>4</v>
-      </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-    </row>
-    <row r="39" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="46">
+      <c r="D38" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="44">
+        <v>4</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="93">
         <v>23</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="50">
-        <v>4</v>
-      </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
-    </row>
-    <row r="40" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="46">
+      <c r="D39" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="44">
+        <v>4</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="93">
         <v>24</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="56" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="50">
-        <v>4</v>
-      </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-    </row>
-    <row r="41" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="46">
+      <c r="D40" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="44">
+        <v>4</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="93">
         <v>25</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="50">
-        <v>4</v>
-      </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="85"/>
-    </row>
-    <row r="42" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="46">
+      <c r="D41" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="44">
+        <v>4</v>
+      </c>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="93">
         <v>26</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="50">
-        <v>4</v>
-      </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="74"/>
-    </row>
-    <row r="43" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="46">
+      <c r="D42" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="44">
+        <v>4</v>
+      </c>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="68"/>
+    </row>
+    <row r="43" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="93">
         <v>27</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="50">
-        <v>4</v>
-      </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="74"/>
-    </row>
-    <row r="44" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="46">
+      <c r="D43" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="44">
+        <v>4</v>
+      </c>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="68"/>
+    </row>
+    <row r="44" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="93">
         <v>28</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="48" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="50">
-        <v>4</v>
-      </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="74"/>
-    </row>
-    <row r="45" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="46">
+      <c r="D44" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="44">
+        <v>4</v>
+      </c>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="68"/>
+    </row>
+    <row r="45" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="93">
         <v>29</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="75">
-        <v>4</v>
-      </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="86" t="s">
+      <c r="D45" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="69">
+        <v>4</v>
+      </c>
+      <c r="G45" s="55"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="80" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="46">
+    <row r="46" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="93">
         <v>30</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="41">
-        <v>4</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="87">
+      <c r="D46" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="36">
+        <v>4</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="81">
         <v>1</v>
       </c>
-      <c r="I46" s="42" t="s">
+      <c r="I46" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="37">
         <v>1000000</v>
       </c>
-      <c r="K46" s="45" t="s">
+      <c r="K46" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="46">
+    <row r="47" spans="1:11" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="93">
         <v>31</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58" t="s">
+      <c r="B47" s="51"/>
+      <c r="C47" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="75">
-        <v>4</v>
-      </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="79" t="s">
+      <c r="D47" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="69">
+        <v>4</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="46">
+    <row r="48" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="93">
         <v>32</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="90" t="s">
+      <c r="C48" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="92">
+      <c r="D48" s="85"/>
+      <c r="E48" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="86">
         <v>7</v>
       </c>
-      <c r="G48" s="93">
+      <c r="G48" s="87">
         <v>10000</v>
       </c>
-      <c r="H48" s="92">
-        <v>4</v>
-      </c>
-      <c r="I48" s="92" t="s">
+      <c r="H48" s="86">
+        <v>4</v>
+      </c>
+      <c r="I48" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="J48" s="94">
+      <c r="J48" s="88">
         <v>500000</v>
       </c>
-      <c r="K48" s="95" t="s">
+      <c r="K48" s="89" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="46">
+    <row r="49" spans="1:11" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="93">
         <v>33</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="90" t="s">
+      <c r="C49" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="92">
+      <c r="D49" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="86">
         <v>6</v>
       </c>
-      <c r="G49" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="92">
+      <c r="G49" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="86">
         <v>1</v>
       </c>
-      <c r="I49" s="92" t="s">
+      <c r="I49" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="94">
+      <c r="J49" s="88">
         <v>1000000</v>
       </c>
-      <c r="K49" s="95"/>
-    </row>
-    <row r="50" spans="1:11" s="27" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="46">
+      <c r="K49" s="89"/>
+    </row>
+    <row r="50" spans="1:11" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="93">
         <v>34</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="92">
+      <c r="D50" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="86">
         <v>1</v>
       </c>
-      <c r="G50" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="92">
+      <c r="G50" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="86">
         <v>1</v>
       </c>
-      <c r="I50" s="92" t="s">
+      <c r="I50" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="97">
+      <c r="J50" s="91">
         <v>500000</v>
       </c>
-      <c r="K50" s="95" t="s">
+      <c r="K50" s="89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:11" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="92">
+      <c r="D51" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="86">
         <v>6</v>
       </c>
-      <c r="G51" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="92">
+      <c r="G51" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="86">
         <v>1</v>
       </c>
-      <c r="I51" s="92" t="s">
+      <c r="I51" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="94">
+      <c r="J51" s="88">
         <v>100000</v>
       </c>
-      <c r="K51" s="95"/>
+      <c r="K51" s="89"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="11"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="12"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="13"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <f>SUM(J3:J52)</f>
         <v>22514120</v>
       </c>
@@ -2738,7 +2728,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"-,Bold"&amp;14Bill of Quantity</oddHeader>
     <oddFooter>&amp;LConsultancy Services for the Plant Audit in various Pump Stations and Reservoirs (OP18REFCS03)&amp;R&amp;P of &amp;N</oddFooter>
